--- a/public/AFAST.xlsx
+++ b/public/AFAST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano.pedicino\Desktop\Accenture\afast-quiz\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AEF48D-BFBE-44AE-83AA-344A0732B367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3C8D93-4D08-442A-9072-35510F74D208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7744" uniqueCount="2290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7736" uniqueCount="2394">
   <si>
     <t>Domanda</t>
   </si>
@@ -6670,9 +6670,6 @@
     <t>What is the main use of money?</t>
   </si>
   <si>
-    <t>Which amongst the following best describes mortgage Loan?</t>
-  </si>
-  <si>
     <t>Why is collateral linked to a loan?</t>
   </si>
   <si>
@@ -6769,18 +6766,12 @@
     <t>Debt-to-Equity Ratio is equal to</t>
   </si>
   <si>
-    <t>Debt-to-income ratio is calculated by</t>
-  </si>
-  <si>
     <t>Difference between Loan and Overdraft?</t>
   </si>
   <si>
     <t>Funds transfer can be classified as?</t>
   </si>
   <si>
-    <t>How inflation could be defined?</t>
-  </si>
-  <si>
     <t>In Case of a Secured product application is it mandatory to capture Collateral details in the application?</t>
   </si>
   <si>
@@ -6796,30 +6787,18 @@
     <t>SWIFT full messaging format:</t>
   </si>
   <si>
-    <t>SWIFT gpi product suite comprises of which components?</t>
-  </si>
-  <si>
     <t>State True or False - Credit Rating is an evaluation of the credit worthiness of an applicant, which helps the bank to determine the customer's ability to pay back the loan and reduces the chances of loan default.</t>
   </si>
   <si>
     <t>The certificate of deposits which are usually negotiable are issued by?</t>
   </si>
   <si>
-    <t>Treasury Bills are</t>
-  </si>
-  <si>
-    <t>What Is The Mandate Dematerialization in SEPA?</t>
-  </si>
-  <si>
     <t>What are the SWIFT messaging services?</t>
   </si>
   <si>
     <t>What are the deposit products offered by Bank?</t>
   </si>
   <si>
-    <t>What do you mean by co-signer/co borrower/co-maker?</t>
-  </si>
-  <si>
     <t>What is EFT stands for?</t>
   </si>
   <si>
@@ -6898,6 +6877,339 @@
     <t>Risk &amp; Document management</t>
   </si>
   <si>
+    <t>Payment network allows individuals and secure financial transactions for its members.</t>
+  </si>
+  <si>
+    <t>When you make a purchase outside the Country</t>
+  </si>
+  <si>
+    <t>Treasury Bills are:</t>
+  </si>
+  <si>
+    <t>Short-term government securities</t>
+  </si>
+  <si>
+    <t>What is the Mandate Dematerialization in SEPA?</t>
+  </si>
+  <si>
+    <t>What do you mean by co-signer/co-borrower/co-maker?</t>
+  </si>
+  <si>
+    <t>A type of savings account</t>
+  </si>
+  <si>
+    <t>A fixed-term loan</t>
+  </si>
+  <si>
+    <t>A flexible borrowing limit set by a bank</t>
+  </si>
+  <si>
+    <t>A type of investment product</t>
+  </si>
+  <si>
+    <t>Both require collateral</t>
+  </si>
+  <si>
+    <t>Secured loans require collateral, unsecured don’t</t>
+  </si>
+  <si>
+    <t>Only unsecured loans need insurance</t>
+  </si>
+  <si>
+    <t>Secured loans never need documentation</t>
+  </si>
+  <si>
+    <t>Unit of account</t>
+  </si>
+  <si>
+    <t>Store of value</t>
+  </si>
+  <si>
+    <t>Medium of exchange</t>
+  </si>
+  <si>
+    <t>Money borrowed from the bank</t>
+  </si>
+  <si>
+    <t>Money placed in a bank account</t>
+  </si>
+  <si>
+    <t>Payment for a loan</t>
+  </si>
+  <si>
+    <t>Bank’s service fee</t>
+  </si>
+  <si>
+    <t>Processed only during business hours</t>
+  </si>
+  <si>
+    <t>Take 2–3 working days</t>
+  </si>
+  <si>
+    <t>Processed immediately or within seconds</t>
+  </si>
+  <si>
+    <t>Require manual approval</t>
+  </si>
+  <si>
+    <t>Automatic withdrawal from payer’s account</t>
+  </si>
+  <si>
+    <t>One-time payment made by the bank</t>
+  </si>
+  <si>
+    <t>Manual standing order</t>
+  </si>
+  <si>
+    <t>Deposit by third-party</t>
+  </si>
+  <si>
+    <t>Only the recipient can request it</t>
+  </si>
+  <si>
+    <t>It’s not allowed under SEPA</t>
+  </si>
+  <si>
+    <t>Originator bank may recall within 10 days</t>
+  </si>
+  <si>
+    <t>Only the ECB can approve it</t>
+  </si>
+  <si>
+    <t>Debt-to-income ratio is calculated by:</t>
+  </si>
+  <si>
+    <t>Income divided by total expenses</t>
+  </si>
+  <si>
+    <t>Debt divided by credit score</t>
+  </si>
+  <si>
+    <t>Total monthly debt divided by gross income</t>
+  </si>
+  <si>
+    <t>Monthly income minus taxes</t>
+  </si>
+  <si>
+    <t>Loan is fixed and term-based, overdraft is flexible</t>
+  </si>
+  <si>
+    <t>Overdraft is free of interest</t>
+  </si>
+  <si>
+    <t>Loan requires no documentation</t>
+  </si>
+  <si>
+    <t>Loan is only available for businesses</t>
+  </si>
+  <si>
+    <t>Guaranteed profit</t>
+  </si>
+  <si>
+    <t>No change in returns</t>
+  </si>
+  <si>
+    <t>Possible deviation from expected outcome</t>
+  </si>
+  <si>
+    <t>Fixed losses</t>
+  </si>
+  <si>
+    <t>Ignoring risks to save time</t>
+  </si>
+  <si>
+    <t>Insuring all loans</t>
+  </si>
+  <si>
+    <t>Applying strategies to reduce risk</t>
+  </si>
+  <si>
+    <t>Investing only in high-risk funds</t>
+  </si>
+  <si>
+    <t>10-digit account number</t>
+  </si>
+  <si>
+    <t>Bank code, branch ID</t>
+  </si>
+  <si>
+    <t>8–11 character code identifying institution, country, and branch</t>
+  </si>
+  <si>
+    <t>Postal and routing code</t>
+  </si>
+  <si>
+    <t>SWIFT gpi product suite comprises which components?</t>
+  </si>
+  <si>
+    <t>Messaging app</t>
+  </si>
+  <si>
+    <t>Payments tracking and insights</t>
+  </si>
+  <si>
+    <t>Lending system</t>
+  </si>
+  <si>
+    <t>Blockchain platform</t>
+  </si>
+  <si>
+    <t>Long-term loans from private banks</t>
+  </si>
+  <si>
+    <t>Equity instruments</t>
+  </si>
+  <si>
+    <t>Fixed deposits</t>
+  </si>
+  <si>
+    <t>Converting electronic mandates to paper</t>
+  </si>
+  <si>
+    <t>Destroying paper mandates</t>
+  </si>
+  <si>
+    <t>Converting paper mandates to digital format</t>
+  </si>
+  <si>
+    <t>Verifying SEPA signatures</t>
+  </si>
+  <si>
+    <t>Someone who guarantees repayment of loan</t>
+  </si>
+  <si>
+    <t>Legal witness to the contract</t>
+  </si>
+  <si>
+    <t>The main loan applicant</t>
+  </si>
+  <si>
+    <t>Bank manager</t>
+  </si>
+  <si>
+    <t>Fixed amount deposited periodically</t>
+  </si>
+  <si>
+    <t>Deposit for stock purchase</t>
+  </si>
+  <si>
+    <t>Variable interest loan</t>
+  </si>
+  <si>
+    <t>Withdrawals at will</t>
+  </si>
+  <si>
+    <t>Cash-only bond</t>
+  </si>
+  <si>
+    <t>Can be converted into shares</t>
+  </si>
+  <si>
+    <t>Repaid in gold</t>
+  </si>
+  <si>
+    <t>Fixed deposit type</t>
+  </si>
+  <si>
+    <t>Deposit with flexible amount and term</t>
+  </si>
+  <si>
+    <t>Savings for pension</t>
+  </si>
+  <si>
+    <t>Fixed deposits made monthly for a set period</t>
+  </si>
+  <si>
+    <t>Credit product</t>
+  </si>
+  <si>
+    <t>Only unsecured loans require collateral</t>
+  </si>
+  <si>
+    <t>Secured loans need no agreement</t>
+  </si>
+  <si>
+    <t>Secured loans are backed by assets</t>
+  </si>
+  <si>
+    <t>Both are risk-free</t>
+  </si>
+  <si>
+    <t>Loan repayment</t>
+  </si>
+  <si>
+    <t>Insurance premium</t>
+  </si>
+  <si>
+    <t>Interest rate on credit</t>
+  </si>
+  <si>
+    <t>IBAN and email code</t>
+  </si>
+  <si>
+    <t>Name and routing code</t>
+  </si>
+  <si>
+    <t>Institution, country, location, branch codes</t>
+  </si>
+  <si>
+    <t>Card number format</t>
+  </si>
+  <si>
+    <t>Type of credit card</t>
+  </si>
+  <si>
+    <t>Loan with fixed repayment</t>
+  </si>
+  <si>
+    <t>Flexible borrowing agreement with bank</t>
+  </si>
+  <si>
+    <t>Business capital plan</t>
+  </si>
+  <si>
+    <t>Accurate forecasts</t>
+  </si>
+  <si>
+    <t>Predictable returns</t>
+  </si>
+  <si>
+    <t>Performance variance or loss</t>
+  </si>
+  <si>
+    <t>Profit guarantee</t>
+  </si>
+  <si>
+    <t>Audit tools only</t>
+  </si>
+  <si>
+    <t>Fraud monitoring only</t>
+  </si>
+  <si>
+    <t>Tracking, compliance and analytics</t>
+  </si>
+  <si>
+    <t>Central bank report</t>
+  </si>
+  <si>
+    <t>Used to track real estate returns</t>
+  </si>
+  <si>
+    <t>Forecasts max loss within confidence level</t>
+  </si>
+  <si>
+    <t>Determines tax on capital</t>
+  </si>
+  <si>
+    <t>Calculates revenue only</t>
+  </si>
+  <si>
+    <t>SAP Banking</t>
+  </si>
+  <si>
+    <t>Fiserv</t>
+  </si>
+  <si>
     <t>RispostaA</t>
   </si>
   <si>
@@ -6907,13 +7219,13 @@
     <t>RispostaC</t>
   </si>
   <si>
+    <t>RispostaCorretta</t>
+  </si>
+  <si>
+    <t>PredictedCategory</t>
+  </si>
+  <si>
     <t>RispostaD</t>
-  </si>
-  <si>
-    <t>RispostaCorretta</t>
-  </si>
-  <si>
-    <t>PredictedCategory</t>
   </si>
 </sst>
 </file>
@@ -7067,7 +7379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7189,6 +7501,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -34331,10 +34661,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E2D9EF-A08B-4882-8DFC-A93EC3395775}">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34345,8 +34675,8 @@
     <col min="4" max="4" width="44.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="75.08984375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.6328125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.26953125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6328125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="47.1796875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.35">
@@ -34354,25 +34684,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>2284</v>
+        <v>2388</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>2285</v>
+        <v>2389</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>2286</v>
+        <v>2390</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>2287</v>
+        <v>2393</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>2288</v>
+        <v>2391</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>2289</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -34501,8 +34831,8 @@
       <c r="C7" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>664</v>
+      <c r="D7" s="28" t="s">
+        <v>666</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>665</v>
@@ -34648,23 +34978,23 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="46" t="s">
         <v>2204</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>1380</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>1381</v>
+      <c r="B13" s="46" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>2285</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>1382</v>
@@ -34689,8 +35019,8 @@
       <c r="E14" s="33" t="s">
         <v>1528</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>1529</v>
+      <c r="F14" s="45" t="s">
+        <v>1526</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>1530</v>
@@ -34699,24 +35029,24 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="46" t="s">
         <v>2206</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>1581</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>1582</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>1583</v>
+      <c r="B15" s="46" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>2288</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>1584</v>
@@ -34752,23 +35082,23 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
-        <v>2208</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>1697</v>
+      <c r="A17" s="46" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>1698</v>
@@ -34779,7 +35109,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>1946</v>
@@ -34790,8 +35120,8 @@
       <c r="D18" s="33" t="s">
         <v>1948</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>1268</v>
+      <c r="E18" s="28" t="s">
+        <v>462</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>462</v>
@@ -34805,7 +35135,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>26</v>
@@ -34827,7 +35157,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="36" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>26</v>
@@ -34849,7 +35179,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>2003</v>
@@ -34875,7 +35205,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>895</v>
@@ -34901,7 +35231,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="37" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>1372</v>
@@ -34927,7 +35257,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>1532</v>
@@ -34953,7 +35283,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="37" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>654</v>
@@ -34979,7 +35309,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="37" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>504</v>
@@ -35005,7 +35335,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="37" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>505</v>
@@ -35030,23 +35360,23 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="37" t="s">
-        <v>2219</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>48</v>
+      <c r="A28" s="47" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>2296</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>2295</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>1461</v>
@@ -35057,7 +35387,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="37" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>31</v>
@@ -35083,7 +35413,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="37" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>198</v>
@@ -35109,7 +35439,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="37" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>358</v>
@@ -35135,7 +35465,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="37" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>644</v>
@@ -35161,10 +35491,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="37" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>744</v>
+        <v>2223</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>747</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>745</v>
@@ -35187,7 +35517,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="37" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>1918</v>
@@ -35212,23 +35542,23 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="37" t="s">
-        <v>2226</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>48</v>
+      <c r="A35" s="47" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>2300</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>2300</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>437</v>
@@ -35239,7 +35569,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="37" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B36" s="34" t="s">
         <v>990</v>
@@ -35264,23 +35594,23 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="37" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>1521</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>1522</v>
+      <c r="A37" s="47" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>2305</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>2302</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>1523</v>
@@ -35291,7 +35621,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="37" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>329</v>
@@ -35317,7 +35647,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="37" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B39" s="34" t="s">
         <v>1433</v>
@@ -35341,9 +35671,9 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="37" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>1624</v>
@@ -35368,23 +35698,23 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="37" t="s">
-        <v>2232</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>1891</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>1892</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>1893</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>416</v>
+      <c r="A41" s="47" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>2308</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>2308</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>1894</v>
@@ -35395,7 +35725,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="37" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>1922</v>
@@ -35421,7 +35751,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="38" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>166</v>
@@ -35447,7 +35777,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="38" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B44" s="35" t="s">
         <v>226</v>
@@ -35462,7 +35792,7 @@
         <v>229</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G44" s="30" t="s">
         <v>231</v>
@@ -35473,7 +35803,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="38" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B45" s="35" t="s">
         <v>272</v>
@@ -35499,19 +35829,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="38" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>297</v>
+        <v>2277</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E46" s="35" t="s">
         <v>299</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>48</v>
@@ -35525,7 +35855,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>302</v>
@@ -35533,8 +35863,8 @@
       <c r="C47" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="D47" s="35" t="s">
-        <v>304</v>
+      <c r="D47" s="30" t="s">
+        <v>306</v>
       </c>
       <c r="E47" s="35" t="s">
         <v>305</v>
@@ -35551,7 +35881,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="38" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>309</v>
@@ -35577,7 +35907,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="38" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>340</v>
@@ -35592,7 +35922,7 @@
         <v>343</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G49" s="30" t="s">
         <v>345</v>
@@ -35602,23 +35932,23 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="38" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>349</v>
+      <c r="A50" s="48" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>2313</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>350</v>
@@ -35629,7 +35959,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="38" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="B51" s="35" t="s">
         <v>352</v>
@@ -35655,7 +35985,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="38" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>412</v>
@@ -35663,8 +35993,8 @@
       <c r="C52" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="D52" s="35" t="s">
-        <v>414</v>
+      <c r="D52" s="30" t="s">
+        <v>416</v>
       </c>
       <c r="E52" s="35" t="s">
         <v>415</v>
@@ -35679,24 +36009,24 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="38" t="s">
-        <v>2244</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>460</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>462</v>
+    <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="48" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B53" s="48" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C53" s="48" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>2318</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>2315</v>
       </c>
       <c r="G53" s="30" t="s">
         <v>463</v>
@@ -35707,7 +36037,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="38" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>480</v>
@@ -35755,7 +36085,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="38" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>644</v>
@@ -35781,7 +36111,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="38" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="B57" s="35" t="s">
         <v>702</v>
@@ -35806,23 +36136,23 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="38" t="s">
-        <v>2247</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>706</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>707</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>708</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>709</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>710</v>
+      <c r="A58" s="48" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F58" s="48" t="s">
+        <v>2321</v>
       </c>
       <c r="G58" s="30" t="s">
         <v>711</v>
@@ -35832,23 +36162,23 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="38" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>713</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>714</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>715</v>
-      </c>
-      <c r="E59" s="35" t="s">
-        <v>716</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>48</v>
+      <c r="A59" s="48" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>2325</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>2326</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>2325</v>
       </c>
       <c r="G59" s="30" t="s">
         <v>717</v>
@@ -35857,24 +36187,24 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="38" t="s">
-        <v>2249</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>732</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>732</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>733</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>735</v>
+    <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="48" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B60" s="48" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>2329</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>2330</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>2329</v>
       </c>
       <c r="G60" s="30" t="s">
         <v>736</v>
@@ -35884,23 +36214,23 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="38" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>738</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>739</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>740</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>741</v>
-      </c>
-      <c r="F61" s="23" t="s">
-        <v>48</v>
+      <c r="A61" s="48" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>2334</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>2335</v>
+      </c>
+      <c r="F61" s="48" t="s">
+        <v>2333</v>
       </c>
       <c r="G61" s="30" t="s">
         <v>742</v>
@@ -35911,10 +36241,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="38" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>744</v>
+        <v>2223</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>747</v>
       </c>
       <c r="C62" s="35" t="s">
         <v>745</v>
@@ -35937,7 +36267,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="38" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>776</v>
@@ -35959,7 +36289,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="38" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>860</v>
@@ -35984,23 +36314,23 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="38" t="s">
-        <v>2253</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>958</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>959</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>960</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>961</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>962</v>
+      <c r="A65" s="48" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>2280</v>
       </c>
       <c r="G65" s="30" t="s">
         <v>963</v>
@@ -36010,23 +36340,23 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="38" t="s">
-        <v>2254</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>995</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>996</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>997</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>998</v>
-      </c>
-      <c r="F66" s="23" t="s">
-        <v>999</v>
+      <c r="A66" s="48" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B66" s="48" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>2341</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F66" s="48" t="s">
+        <v>2341</v>
       </c>
       <c r="G66" s="30" t="s">
         <v>1000</v>
@@ -36037,7 +36367,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="38" t="s">
-        <v>2255</v>
+        <v>2249</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>1061</v>
@@ -36063,7 +36393,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="38" t="s">
-        <v>2256</v>
+        <v>2250</v>
       </c>
       <c r="B68" s="35" t="s">
         <v>1066</v>
@@ -36088,23 +36418,23 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="38" t="s">
-        <v>2257</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E69" s="35" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>1179</v>
+      <c r="A69" s="48" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B69" s="48" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C69" s="48" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D69" s="48" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F69" s="48" t="s">
+        <v>2343</v>
       </c>
       <c r="G69" s="30" t="s">
         <v>1180</v>
@@ -36115,7 +36445,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="38" t="s">
-        <v>2258</v>
+        <v>2251</v>
       </c>
       <c r="B70" s="35" t="s">
         <v>1334</v>
@@ -36141,7 +36471,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="38" t="s">
-        <v>2259</v>
+        <v>2252</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>1359</v>
@@ -36156,7 +36486,7 @@
         <v>1362</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>1363</v>
+        <v>2278</v>
       </c>
       <c r="G71" s="30" t="s">
         <v>1364</v>
@@ -36167,7 +36497,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="38" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B72" s="35" t="s">
         <v>1372</v>
@@ -36192,130 +36522,130 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="38" t="s">
-        <v>2204</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>1380</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>1381</v>
+      <c r="A73" s="48" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B73" s="48" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C73" s="48" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D73" s="48" t="s">
+        <v>2349</v>
+      </c>
+      <c r="E73" s="48" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F73" s="48" t="s">
+        <v>2347</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>1382</v>
+        <v>1461</v>
       </c>
       <c r="H73" s="27" t="s">
         <v>2186</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="38" t="s">
-        <v>2219</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E74" s="35" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F74" s="23" t="s">
-        <v>48</v>
+      <c r="A74" s="48" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B74" s="48" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C74" s="48" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D74" s="48" t="s">
+        <v>2353</v>
+      </c>
+      <c r="E74" s="48" t="s">
+        <v>2354</v>
+      </c>
+      <c r="F74" s="48" t="s">
+        <v>2352</v>
       </c>
       <c r="G74" s="30" t="s">
-        <v>1461</v>
+        <v>1467</v>
       </c>
       <c r="H74" s="27" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="38" t="s">
-        <v>2260</v>
+        <v>2205</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>1463</v>
+        <v>1525</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>1464</v>
+        <v>1526</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>1465</v>
+        <v>1527</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>48</v>
+        <v>1528</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>1466</v>
+        <v>1526</v>
       </c>
       <c r="G75" s="30" t="s">
-        <v>1467</v>
+        <v>1530</v>
       </c>
       <c r="H75" s="27" t="s">
         <v>2186</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="38" t="s">
-        <v>2205</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D76" s="35" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E76" s="35" t="s">
-        <v>1528</v>
-      </c>
-      <c r="F76" s="23" t="s">
-        <v>1529</v>
+      <c r="A76" s="48" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B76" s="48" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C76" s="48" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D76" s="48" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E76" s="48" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>2357</v>
       </c>
       <c r="G76" s="30" t="s">
-        <v>1530</v>
+        <v>1567</v>
       </c>
       <c r="H76" s="27" t="s">
         <v>2186</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="38" t="s">
-        <v>2261</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E77" s="35" t="s">
-        <v>1565</v>
-      </c>
-      <c r="F77" s="23" t="s">
-        <v>1566</v>
+      <c r="A77" s="48" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B77" s="48" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C77" s="48" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D77" s="48" t="s">
+        <v>2361</v>
+      </c>
+      <c r="E77" s="48" t="s">
+        <v>2362</v>
+      </c>
+      <c r="F77" s="48" t="s">
+        <v>2361</v>
       </c>
       <c r="G77" s="30" t="s">
-        <v>1567</v>
+        <v>1584</v>
       </c>
       <c r="H77" s="27" t="s">
         <v>2186</v>
@@ -36323,54 +36653,54 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="38" t="s">
-        <v>2206</v>
+        <v>2255</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>1580</v>
+        <v>1765</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>1581</v>
+        <v>1766</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>1582</v>
+        <v>1767</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>1582</v>
+        <v>1768</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>1583</v>
+        <v>1768</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>1584</v>
+        <v>1769</v>
       </c>
       <c r="H78" s="27" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="38" t="s">
-        <v>2262</v>
-      </c>
-      <c r="B79" s="35" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>1767</v>
-      </c>
-      <c r="E79" s="35" t="s">
-        <v>1768</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G79" s="30" t="s">
-        <v>1769</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>2186</v>
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A79" s="40" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>2191</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.35">
@@ -36378,22 +36708,22 @@
         <v>2214</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>1372</v>
+        <v>1532</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>1373</v>
+        <v>1533</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>1374</v>
+        <v>1534</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>96</v>
+        <v>1535</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>1373</v>
+        <v>1535</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>1375</v>
+        <v>1536</v>
       </c>
       <c r="H80" s="25" t="s">
         <v>2191</v>
@@ -36404,22 +36734,22 @@
         <v>2215</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>1532</v>
+        <v>654</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>1533</v>
+        <v>655</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>1534</v>
+        <v>656</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>1535</v>
+        <v>657</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>1535</v>
+        <v>656</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>1536</v>
+        <v>658</v>
       </c>
       <c r="H81" s="25" t="s">
         <v>2191</v>
@@ -36430,22 +36760,22 @@
         <v>2216</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>654</v>
+        <v>504</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>655</v>
+        <v>505</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>656</v>
+        <v>506</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>657</v>
+        <v>507</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>656</v>
+        <v>505</v>
       </c>
       <c r="G82" s="31" t="s">
-        <v>658</v>
+        <v>508</v>
       </c>
       <c r="H82" s="25" t="s">
         <v>2191</v>
@@ -36456,48 +36786,48 @@
         <v>2217</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>505</v>
+        <v>1403</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>506</v>
+        <v>1404</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>507</v>
+        <v>1157</v>
       </c>
       <c r="F83" s="26" t="s">
         <v>505</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>508</v>
+        <v>1405</v>
       </c>
       <c r="H83" s="25" t="s">
         <v>2191</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="49" t="s">
         <v>2218</v>
       </c>
-      <c r="B84" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F84" s="26" t="s">
-        <v>505</v>
+      <c r="B84" s="49" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C84" s="49" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D84" s="49" t="s">
+        <v>2295</v>
+      </c>
+      <c r="E84" s="49" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F84" s="49" t="s">
+        <v>2295</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>1405</v>
+        <v>1461</v>
       </c>
       <c r="H84" s="25" t="s">
         <v>2191</v>
@@ -36505,25 +36835,25 @@
     </row>
     <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A85" s="40" t="s">
-        <v>2219</v>
+        <v>2223</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>1457</v>
+        <v>744</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>1458</v>
+        <v>747</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>1459</v>
+        <v>746</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>1460</v>
+        <v>96</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>48</v>
+        <v>747</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>1461</v>
+        <v>748</v>
       </c>
       <c r="H85" s="25" t="s">
         <v>2191</v>
@@ -36534,22 +36864,22 @@
         <v>2224</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>744</v>
+        <v>1918</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>745</v>
+        <v>1919</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>746</v>
+        <v>860</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>747</v>
+        <v>48</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>748</v>
+        <v>1920</v>
       </c>
       <c r="H86" s="25" t="s">
         <v>2191</v>
@@ -36557,25 +36887,25 @@
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A87" s="40" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>1918</v>
+        <v>990</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>1919</v>
+        <v>991</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>860</v>
+        <v>992</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>48</v>
+        <v>990</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>1920</v>
+        <v>993</v>
       </c>
       <c r="H87" s="25" t="s">
         <v>2191</v>
@@ -36583,25 +36913,25 @@
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A88" s="40" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>990</v>
+        <v>1433</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>991</v>
+        <v>1434</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>992</v>
+        <v>96</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>96</v>
+        <v>1435</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>990</v>
+        <v>1435</v>
       </c>
       <c r="G88" s="31" t="s">
-        <v>993</v>
+        <v>1436</v>
       </c>
       <c r="H88" s="25" t="s">
         <v>2191</v>
@@ -36609,25 +36939,25 @@
     </row>
     <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A89" s="40" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>1433</v>
+        <v>1922</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>1434</v>
+        <v>1923</v>
       </c>
       <c r="D89" s="31" t="s">
         <v>96</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>1435</v>
+        <v>48</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>1435</v>
+        <v>1924</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>1436</v>
+        <v>1925</v>
       </c>
       <c r="H89" s="25" t="s">
         <v>2191</v>
@@ -36635,25 +36965,25 @@
     </row>
     <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A90" s="40" t="s">
-        <v>2233</v>
+        <v>2256</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>1922</v>
+        <v>62</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>1923</v>
+        <v>63</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>1924</v>
+        <v>65</v>
       </c>
       <c r="G90" s="31" t="s">
-        <v>1925</v>
+        <v>66</v>
       </c>
       <c r="H90" s="25" t="s">
         <v>2191</v>
@@ -36661,77 +36991,77 @@
     </row>
     <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A91" s="40" t="s">
-        <v>2263</v>
+        <v>2257</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>62</v>
+        <v>726</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>63</v>
+        <v>727</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>65</v>
+        <v>728</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>65</v>
+        <v>729</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>66</v>
+        <v>730</v>
       </c>
       <c r="H91" s="25" t="s">
         <v>2191</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A92" s="40" t="s">
-        <v>2264</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>727</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>728</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>729</v>
+      <c r="A92" s="49" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B92" s="49" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D92" s="49" t="s">
+        <v>2368</v>
+      </c>
+      <c r="E92" s="49" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F92" s="49" t="s">
+        <v>2368</v>
       </c>
       <c r="G92" s="31" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="H92" s="25" t="s">
         <v>2191</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A93" s="40" t="s">
-        <v>2249</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>732</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>732</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>733</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>734</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>735</v>
+      <c r="A93" s="49" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B93" s="49" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D93" s="49" t="s">
+        <v>2372</v>
+      </c>
+      <c r="E93" s="49" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F93" s="49" t="s">
+        <v>2372</v>
       </c>
       <c r="G93" s="31" t="s">
-        <v>736</v>
+        <v>1382</v>
       </c>
       <c r="H93" s="25" t="s">
         <v>2191</v>
@@ -36739,25 +37069,25 @@
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A94" s="40" t="s">
-        <v>2204</v>
+        <v>2234</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>1377</v>
+        <v>226</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>1378</v>
+        <v>227</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>1379</v>
+        <v>228</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>1380</v>
+        <v>229</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>1381</v>
+        <v>228</v>
       </c>
       <c r="G94" s="31" t="s">
-        <v>1382</v>
+        <v>231</v>
       </c>
       <c r="H94" s="25" t="s">
         <v>2191</v>
@@ -36765,25 +37095,25 @@
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A95" s="40" t="s">
-        <v>2235</v>
+        <v>2258</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>226</v>
+        <v>726</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>227</v>
+        <v>1026</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>228</v>
+        <v>416</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>229</v>
+        <v>96</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>230</v>
+        <v>416</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>231</v>
+        <v>1027</v>
       </c>
       <c r="H95" s="25" t="s">
         <v>2191</v>
@@ -36791,25 +37121,25 @@
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A96" s="40" t="s">
-        <v>2265</v>
+        <v>2249</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>726</v>
+        <v>1061</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>1026</v>
+        <v>1062</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>728</v>
+        <v>1063</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>416</v>
+        <v>48</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>1027</v>
+        <v>1064</v>
       </c>
       <c r="H96" s="25" t="s">
         <v>2191</v>
@@ -36817,25 +37147,25 @@
     </row>
     <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A97" s="40" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>1061</v>
+        <v>1124</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>1063</v>
+        <v>1126</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>48</v>
+        <v>809</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>48</v>
+        <v>809</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>1064</v>
+        <v>1127</v>
       </c>
       <c r="H97" s="25" t="s">
         <v>2191</v>
@@ -36843,25 +37173,25 @@
     </row>
     <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A98" s="40" t="s">
-        <v>2266</v>
+        <v>2260</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>1124</v>
+        <v>1963</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>1125</v>
+        <v>1964</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>1126</v>
+        <v>1965</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>809</v>
+        <v>96</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>809</v>
+        <v>1964</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>1127</v>
+        <v>1966</v>
       </c>
       <c r="H98" s="25" t="s">
         <v>2191</v>
@@ -36869,25 +37199,25 @@
     </row>
     <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A99" s="40" t="s">
-        <v>2267</v>
+        <v>2261</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>1963</v>
+        <v>1793</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>1964</v>
+        <v>1794</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>1965</v>
+        <v>1795</v>
       </c>
       <c r="E99" s="31" t="s">
         <v>96</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>1964</v>
+        <v>96</v>
       </c>
       <c r="G99" s="31" t="s">
-        <v>1966</v>
+        <v>1796</v>
       </c>
       <c r="H99" s="25" t="s">
         <v>2191</v>
@@ -36895,16 +37225,16 @@
     </row>
     <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A100" s="40" t="s">
-        <v>2268</v>
+        <v>2262</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>1795</v>
+        <v>1805</v>
       </c>
       <c r="E100" s="31" t="s">
         <v>96</v>
@@ -36913,7 +37243,7 @@
         <v>96</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>1796</v>
+        <v>1806</v>
       </c>
       <c r="H100" s="25" t="s">
         <v>2191</v>
@@ -36921,133 +37251,133 @@
     </row>
     <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A101" s="40" t="s">
-        <v>2269</v>
+        <v>2263</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>1803</v>
+        <v>406</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>1804</v>
+        <v>407</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>1805</v>
+        <v>408</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>96</v>
+        <v>409</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>96</v>
+        <v>407</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>1806</v>
+        <v>410</v>
       </c>
       <c r="H101" s="25" t="s">
         <v>2191</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A102" s="40" t="s">
-        <v>2270</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="D102" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="E102" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="F102" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="G102" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="H102" s="25" t="s">
-        <v>2191</v>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="41" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B102" s="42" t="s">
+        <v>599</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>601</v>
+      </c>
+      <c r="E102" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G102" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="H102" s="43" t="s">
+        <v>2276</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="41" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>599</v>
+        <v>26</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>600</v>
-      </c>
-      <c r="D103" s="42" t="s">
-        <v>601</v>
-      </c>
-      <c r="E103" s="42" t="s">
-        <v>48</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
       <c r="F103" s="44" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G103" s="42" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
       <c r="H103" s="43" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="41" t="s">
-        <v>2274</v>
-      </c>
-      <c r="B104" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D104" s="42"/>
-      <c r="E104" s="42"/>
-      <c r="F104" s="44" t="s">
-        <v>27</v>
+      <c r="A104" s="50" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B104" s="50" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C104" s="50" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D104" s="50" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E104" s="50" t="s">
+        <v>2377</v>
+      </c>
+      <c r="F104" s="50" t="s">
+        <v>2376</v>
       </c>
       <c r="G104" s="42" t="s">
-        <v>652</v>
+        <v>711</v>
       </c>
       <c r="H104" s="43" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="41" t="s">
-        <v>2247</v>
+        <v>2268</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="F105" s="44" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="H105" s="43" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="41" t="s">
-        <v>2275</v>
+        <v>2269</v>
       </c>
       <c r="B106" s="42" t="s">
         <v>719</v>
@@ -37062,117 +37392,117 @@
         <v>722</v>
       </c>
       <c r="F106" s="44" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G106" s="42" t="s">
         <v>723</v>
       </c>
       <c r="H106" s="43" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="50" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B107" s="50" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C107" s="50" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D107" s="50" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E107" s="50" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F107" s="50" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G107" s="42" t="s">
+        <v>742</v>
+      </c>
+      <c r="H107" s="43" t="s">
         <v>2276</v>
-      </c>
-      <c r="B107" s="42" t="s">
-        <v>719</v>
-      </c>
-      <c r="C107" s="42" t="s">
-        <v>720</v>
-      </c>
-      <c r="D107" s="42" t="s">
-        <v>721</v>
-      </c>
-      <c r="E107" s="42" t="s">
-        <v>722</v>
-      </c>
-      <c r="F107" s="44" t="s">
-        <v>721</v>
-      </c>
-      <c r="G107" s="42" t="s">
-        <v>723</v>
-      </c>
-      <c r="H107" s="43" t="s">
-        <v>2283</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="41" t="s">
-        <v>2250</v>
+        <v>2270</v>
       </c>
       <c r="B108" s="42" t="s">
-        <v>738</v>
+        <v>800</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>739</v>
+        <v>801</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>740</v>
+        <v>802</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>741</v>
+        <v>803</v>
       </c>
       <c r="F108" s="44" t="s">
-        <v>48</v>
+        <v>800</v>
       </c>
       <c r="G108" s="42" t="s">
-        <v>742</v>
+        <v>804</v>
       </c>
       <c r="H108" s="43" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="41" t="s">
-        <v>2277</v>
+        <v>2271</v>
       </c>
       <c r="B109" s="42" t="s">
-        <v>800</v>
+        <v>1705</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>801</v>
+        <v>1706</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>802</v>
+        <v>1707</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="F109" s="44" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="G109" s="42" t="s">
-        <v>804</v>
+        <v>1708</v>
       </c>
       <c r="H109" s="43" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="41" t="s">
-        <v>2278</v>
+        <v>2265</v>
       </c>
       <c r="B110" s="42" t="s">
-        <v>1705</v>
+        <v>1736</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>1706</v>
+        <v>722</v>
       </c>
       <c r="D110" s="42" t="s">
-        <v>1707</v>
+        <v>721</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>809</v>
+        <v>1737</v>
       </c>
       <c r="F110" s="44" t="s">
-        <v>809</v>
+        <v>1736</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>1708</v>
+        <v>1738</v>
       </c>
       <c r="H110" s="43" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
@@ -37180,181 +37510,155 @@
         <v>2272</v>
       </c>
       <c r="B111" s="42" t="s">
-        <v>1736</v>
+        <v>1782</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>722</v>
+        <v>1783</v>
       </c>
       <c r="D111" s="42" t="s">
-        <v>721</v>
+        <v>599</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>1737</v>
+        <v>1784</v>
       </c>
       <c r="F111" s="44" t="s">
-        <v>1736</v>
+        <v>599</v>
       </c>
       <c r="G111" s="42" t="s">
-        <v>1738</v>
+        <v>1785</v>
       </c>
       <c r="H111" s="43" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="41" t="s">
-        <v>2279</v>
-      </c>
-      <c r="B112" s="42" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C112" s="42" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D112" s="42" t="s">
-        <v>599</v>
-      </c>
-      <c r="E112" s="42" t="s">
-        <v>1784</v>
-      </c>
-      <c r="F112" s="44" t="s">
-        <v>599</v>
+      <c r="A112" s="50" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B112" s="50" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C112" s="50" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D112" s="50" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E112" s="50" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F112" s="50" t="s">
+        <v>2383</v>
       </c>
       <c r="G112" s="42" t="s">
-        <v>1785</v>
+        <v>1829</v>
       </c>
       <c r="H112" s="43" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="41" t="s">
-        <v>2280</v>
+        <v>2274</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>1825</v>
+        <v>878</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>1826</v>
+        <v>1495</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>1827</v>
+        <v>1847</v>
       </c>
       <c r="E113" s="42" t="s">
-        <v>1828</v>
+        <v>1496</v>
       </c>
       <c r="F113" s="44" t="s">
-        <v>48</v>
+        <v>1847</v>
       </c>
       <c r="G113" s="42" t="s">
-        <v>1829</v>
+        <v>1848</v>
       </c>
       <c r="H113" s="43" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="41" t="s">
-        <v>2281</v>
-      </c>
-      <c r="B114" s="42" t="s">
-        <v>878</v>
-      </c>
-      <c r="C114" s="42" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D114" s="42" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E114" s="42" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F114" s="44" t="s">
-        <v>1847</v>
+      <c r="A114" s="50" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B114" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="50" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D114" s="50" t="s">
+        <v>2386</v>
+      </c>
+      <c r="E114" s="50" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F114" s="50" t="s">
+        <v>1882</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>1848</v>
+        <v>1884</v>
       </c>
       <c r="H114" s="43" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="41" t="s">
-        <v>2282</v>
+        <v>2232</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>141</v>
+        <v>1922</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>1881</v>
+        <v>1923</v>
       </c>
       <c r="D115" s="42" t="s">
-        <v>1882</v>
+        <v>96</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>1883</v>
+        <v>48</v>
       </c>
       <c r="F115" s="44" t="s">
-        <v>1882</v>
+        <v>1924</v>
       </c>
       <c r="G115" s="42" t="s">
-        <v>1884</v>
+        <v>1925</v>
       </c>
       <c r="H115" s="43" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="41" t="s">
-        <v>2233</v>
+        <v>2266</v>
       </c>
       <c r="B116" s="42" t="s">
-        <v>1922</v>
+        <v>2166</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>1923</v>
+        <v>1737</v>
       </c>
       <c r="D116" s="42" t="s">
-        <v>96</v>
+        <v>2167</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>48</v>
+        <v>2168</v>
       </c>
       <c r="F116" s="44" t="s">
-        <v>1924</v>
+        <v>2167</v>
       </c>
       <c r="G116" s="42" t="s">
-        <v>1925</v>
+        <v>2169</v>
       </c>
       <c r="H116" s="43" t="s">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="41" t="s">
-        <v>2273</v>
-      </c>
-      <c r="B117" s="42" t="s">
-        <v>2166</v>
-      </c>
-      <c r="C117" s="42" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D117" s="42" t="s">
-        <v>2167</v>
-      </c>
-      <c r="E117" s="42" t="s">
-        <v>2168</v>
-      </c>
-      <c r="F117" s="44" t="s">
-        <v>2167</v>
-      </c>
-      <c r="G117" s="42" t="s">
-        <v>2169</v>
-      </c>
-      <c r="H117" s="43" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
     </row>
   </sheetData>

--- a/public/AFAST.xlsx
+++ b/public/AFAST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano.pedicino\Desktop\Accenture\afast-quiz\frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano.pedicino\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3C8D93-4D08-442A-9072-35510F74D208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABD8A7F-8672-4F79-821A-3B31964CB4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7736" uniqueCount="2394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7736" uniqueCount="2402">
   <si>
     <t>Domanda</t>
   </si>
@@ -7210,6 +7210,30 @@
     <t>Fiserv</t>
   </si>
   <si>
+    <t>It is Back-end system that processes daily banking transactions and posts updates to accounts</t>
+  </si>
+  <si>
+    <t>It includes making and servicing loans</t>
+  </si>
+  <si>
+    <t>Opening new accounts. Processing cash deposits</t>
+  </si>
+  <si>
+    <t>Only SEPA credit transfer is possible</t>
+  </si>
+  <si>
+    <t>Loan is fixed amount whereas Overdraft is variable amount with credit limit</t>
+  </si>
+  <si>
+    <t>Loan is long term fund and Overdraft is short term fund</t>
+  </si>
+  <si>
+    <t>Overdraft is a facility, loan is disbursed upfront</t>
+  </si>
+  <si>
+    <t>When you make a purchase within your country</t>
+  </si>
+  <si>
     <t>RispostaA</t>
   </si>
   <si>
@@ -7219,13 +7243,13 @@
     <t>RispostaC</t>
   </si>
   <si>
+    <t>RispostaD</t>
+  </si>
+  <si>
     <t>RispostaCorretta</t>
   </si>
   <si>
     <t>PredictedCategory</t>
-  </si>
-  <si>
-    <t>RispostaD</t>
   </si>
 </sst>
 </file>
@@ -7379,7 +7403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7517,6 +7541,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -34663,20 +34690,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E2D9EF-A08B-4882-8DFC-A93EC3395775}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="207.81640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="79.7265625" style="39" customWidth="1"/>
     <col min="2" max="2" width="41.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="75.08984375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6328125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="47.1796875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="255.6328125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="38.26953125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.35">
@@ -34684,25 +34711,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>2388</v>
+        <v>2396</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>2389</v>
+        <v>2397</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>2390</v>
+        <v>2398</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>2393</v>
+        <v>2399</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>2391</v>
+        <v>2400</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>2392</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -35672,22 +35699,22 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="51" t="s">
         <v>2230</v>
       </c>
-      <c r="B40" s="34" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>1627</v>
-      </c>
-      <c r="F40" s="22" t="s">
+      <c r="B40" s="51" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>2390</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="51" t="s">
         <v>48</v>
       </c>
       <c r="G40" s="29" t="s">
@@ -35731,7 +35758,7 @@
         <v>1922</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="D42" s="34" t="s">
         <v>96</v>
@@ -35802,23 +35829,23 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="51" t="s">
         <v>2235</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="E45" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>276</v>
+      <c r="E45" s="51" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>273</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>277</v>
@@ -35957,23 +35984,23 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="38" t="s">
+    <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="51" t="s">
         <v>2240</v>
       </c>
-      <c r="B51" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="F51" s="23" t="s">
+      <c r="B51" s="51" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>2394</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="51" t="s">
         <v>48</v>
       </c>
       <c r="G51" s="30" t="s">
@@ -36477,10 +36504,10 @@
         <v>1359</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>1360</v>
+        <v>2395</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>1361</v>
+        <v>2278</v>
       </c>
       <c r="E71" s="35" t="s">
         <v>1362</v>
@@ -36945,7 +36972,7 @@
         <v>1922</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="D89" s="31" t="s">
         <v>96</v>
@@ -36997,7 +37024,7 @@
         <v>726</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D91" s="31" t="s">
         <v>96</v>
@@ -37617,7 +37644,7 @@
         <v>1922</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="D115" s="42" t="s">
         <v>96</v>
